--- a/gen_data/plonk.xlsx
+++ b/gen_data/plonk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminoholeguy/Development/Zeroknowledgeworkshop2/Zeroknowledgeworkshop/circuit_test/gen_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16BB6A7F-307C-BC48-84EF-0A2A67152CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F826045-75F3-874A-AF96-9AC3841DE633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="2260" windowWidth="28040" windowHeight="17440" xr2:uid="{965B60DB-72AA-784D-AA01-9B0B32DB7C3F}"/>
   </bookViews>
@@ -31582,6 +31582,7 @@
         <c:axId val="1572179376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -32675,7 +32676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB57EB0-7709-8642-B3E0-04CA2321A853}">
   <dimension ref="A1:NTP6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/gen_data/plonk.xlsx
+++ b/gen_data/plonk.xlsx
@@ -8,21 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminoholeguy/Development/Zeroknowledgeworkshop2/Zeroknowledgeworkshop/circuit_test/gen_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F826045-75F3-874A-AF96-9AC3841DE633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118ED9C6-1328-DC41-A9C6-D6C995236D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="2260" windowWidth="28040" windowHeight="17440" xr2:uid="{965B60DB-72AA-784D-AA01-9B0B32DB7C3F}"/>
+    <workbookView xWindow="1720" yWindow="9540" windowWidth="28040" windowHeight="17440" xr2:uid="{965B60DB-72AA-784D-AA01-9B0B32DB7C3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Plonk" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Plonk!$B$36</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Plonk!$A$1:$NTP$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Plonk!$A$1:$NTP$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Plonk!$B$36</definedName>
     <definedName name="plonk_1" localSheetId="0">Plonk!$A$1:$NTP$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{6A481B46-1DE9-2E44-9147-1A3FE31FF9ED}" name="plonk" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/benjaminoholeguy/Development/Zeroknowledgeworkshop2/Zeroknowledgeworkshop/circuit_test/gen_data/plonk.csv" tab="0" comma="1" qualifier="none">
+    <textPr sourceFile="/Users/benjaminoholeguy/Development/Zeroknowledgeworkshop2/Zeroknowledgeworkshop/circuit_test/gen_data/plonk.csv" tab="0" comma="1" qualifier="none">
       <textFields count="1334">
         <textField/>
         <textField/>
@@ -32676,8 +32672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB57EB0-7709-8642-B3E0-04CA2321A853}">
   <dimension ref="A1:NTP6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/gen_data/plonk.xlsx
+++ b/gen_data/plonk.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminoholeguy/Development/Zeroknowledgeworkshop2/Zeroknowledgeworkshop/circuit_test/gen_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C001BF53-E66D-924B-A731-1BCF29CDE3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C906AE-E194-8544-A3DB-C0150C80EF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="1400" windowWidth="29580" windowHeight="17440" xr2:uid="{965B60DB-72AA-784D-AA01-9B0B32DB7C3F}"/>
+    <workbookView xWindow="3760" yWindow="2120" windowWidth="30140" windowHeight="19180" xr2:uid="{965B60DB-72AA-784D-AA01-9B0B32DB7C3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Plonk" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="plonk_1" localSheetId="0">Plonk!$A$1:$NTP$1</definedName>
@@ -32266,6 +32267,1190 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Plonk - Groth16 - Fflonk</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.6753433449797467E-2"/>
+          <c:y val="6.8084507675560263E-2"/>
+          <c:w val="0.94037300163707149"/>
+          <c:h val="0.84696077983431206"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Plonk</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plonk!$C$45:$C$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plonk!$A$45:$A$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.81</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.04</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.13999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2CDD-E343-984E-EF9B5435812B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Groth16</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plonk!$C$45:$C$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$A$98:$A$132</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.94</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.82</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.81</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.54999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.22999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2CDD-E343-984E-EF9B5435812B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Fflonk</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plonk!$C$45:$C$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]Sheet1!$A$43:$A$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.7900000000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.76</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2CDD-E343-984E-EF9B5435812B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="194313135"/>
+        <c:axId val="1226420320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="194313135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1226420320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1226420320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="46"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Asset percentage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="194313135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.63329984901120473"/>
+          <c:y val="0.34604431557110515"/>
+          <c:w val="6.8905463405189118E-2"/>
+          <c:h val="0.11553364652947794"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -32306,7 +33491,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -32885,6 +34613,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D919D3B-1C59-184F-9F2A-9D75965FFB9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -32899,6 +34665,26 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="98">
+          <cell r="A98">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101">
+            <v>0</v>
+          </cell>
+        </row>
         <row r="102">
           <cell r="A102">
             <v>0.02</v>
@@ -33053,18 +34839,18 @@
         </row>
         <row r="121">
           <cell r="A121">
-            <v>0.01</v>
+            <v>0</v>
           </cell>
           <cell r="C121">
-            <v>37</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122">
-            <v>0.02</v>
+            <v>0</v>
           </cell>
           <cell r="C122">
-            <v>39</v>
+            <v>36</v>
           </cell>
         </row>
         <row r="123">
@@ -33072,7 +34858,370 @@
             <v>0.01</v>
           </cell>
           <cell r="C123">
+            <v>37</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124">
+            <v>0</v>
+          </cell>
+          <cell r="C124">
+            <v>38</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125">
+            <v>0.02</v>
+          </cell>
+          <cell r="C125">
+            <v>39</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126">
+            <v>0</v>
+          </cell>
+          <cell r="C126">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127">
+            <v>0</v>
+          </cell>
+          <cell r="C127">
+            <v>41</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128">
+            <v>0</v>
+          </cell>
+          <cell r="C128">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129">
+            <v>0</v>
+          </cell>
+          <cell r="C129">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130">
+            <v>0</v>
+          </cell>
+          <cell r="C130">
+            <v>44</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131">
+            <v>0</v>
+          </cell>
+          <cell r="C131">
+            <v>45</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="A132">
+            <v>0.01</v>
+          </cell>
+          <cell r="C132">
             <v>46</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="43">
+          <cell r="A43">
+            <v>0.09</v>
+          </cell>
+          <cell r="C43">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>0.31</v>
+          </cell>
+          <cell r="C44">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>0.35000000000000003</v>
+          </cell>
+          <cell r="C45">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>0.22</v>
+          </cell>
+          <cell r="C46">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>0.48</v>
+          </cell>
+          <cell r="C47">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>0.86</v>
+          </cell>
+          <cell r="C48">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>2.0500000000000003</v>
+          </cell>
+          <cell r="C49">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>9.7900000000000009</v>
+          </cell>
+          <cell r="C50">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>34.729999999999997</v>
+          </cell>
+          <cell r="C51">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>32.76</v>
+          </cell>
+          <cell r="C52">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>13.139999999999999</v>
+          </cell>
+          <cell r="C53">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>3.81</v>
+          </cell>
+          <cell r="C54">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>0.72</v>
+          </cell>
+          <cell r="C55">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>0.26</v>
+          </cell>
+          <cell r="C56">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>0.2</v>
+          </cell>
+          <cell r="C57">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>0.12</v>
+          </cell>
+          <cell r="C58">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>0.01</v>
+          </cell>
+          <cell r="C59">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>0.05</v>
+          </cell>
+          <cell r="C60">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>0</v>
+          </cell>
+          <cell r="C61">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>0.01</v>
+          </cell>
+          <cell r="C62">
+            <v>31</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>0</v>
+          </cell>
+          <cell r="C63">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>0.02</v>
+          </cell>
+          <cell r="C64">
+            <v>33</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>0</v>
+          </cell>
+          <cell r="C65">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>0</v>
+          </cell>
+          <cell r="C66">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>0</v>
+          </cell>
+          <cell r="C67">
+            <v>36</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>0</v>
+          </cell>
+          <cell r="C68">
+            <v>37</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>0</v>
+          </cell>
+          <cell r="C69">
+            <v>38</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>0</v>
+          </cell>
+          <cell r="C70">
+            <v>39</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>0</v>
+          </cell>
+          <cell r="C71">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>0</v>
+          </cell>
+          <cell r="C72">
+            <v>41</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>0</v>
+          </cell>
+          <cell r="C73">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>0.01</v>
+          </cell>
+          <cell r="C74">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>0.01</v>
+          </cell>
+          <cell r="C75">
+            <v>44</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -33404,8 +35553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB57EB0-7709-8642-B3E0-04CA2321A853}">
   <dimension ref="A1:NTP97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="L72" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -63451,17 +65600,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+    <row r="45" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>12</v>
+      </c>
     </row>
-    <row r="47" spans="1:1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+    <row r="46" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>13</v>
+      </c>
     </row>
-    <row r="48" spans="1:1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+    <row r="47" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>15</v>
+      </c>
     </row>
     <row r="49" spans="1:6" ht="25" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
+      <c r="A49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>16</v>
+      </c>
     </row>
     <row r="50" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A50" s="1">

--- a/gen_data/plonk.xlsx
+++ b/gen_data/plonk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminoholeguy/Development/Zeroknowledgeworkshop2/Zeroknowledgeworkshop/circuit_test/gen_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C906AE-E194-8544-A3DB-C0150C80EF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD18B16-A466-E94E-BC3F-5C4EC80F9EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3760" yWindow="2120" windowWidth="30140" windowHeight="19180" xr2:uid="{965B60DB-72AA-784D-AA01-9B0B32DB7C3F}"/>
   </bookViews>
@@ -32737,7 +32737,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$A$98:$A$132</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -35553,7 +35553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB57EB0-7709-8642-B3E0-04CA2321A853}">
   <dimension ref="A1:NTP97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L72" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O71" workbookViewId="0">
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
